--- a/REGULAR/GSO/OLINO, PRECIOSA.xlsx
+++ b/REGULAR/GSO/OLINO, PRECIOSA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C51FED-954B-4571-B1DD-7438A8BAEC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1172,7 +1173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1425,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,9 +1578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1884,7 +1882,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1901,25 +1899,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K613" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K613" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2226,93 +2224,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K613"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1965" topLeftCell="A508" activePane="bottomLeft"/>
+      <pane ySplit="1968" topLeftCell="A553" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="L539" sqref="L539"/>
+      <selection pane="bottomLeft" activeCell="C567" sqref="C567"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2320,7 +2318,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2333,24 +2331,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2394,7 +2392,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.708999999999889</v>
+        <v>53.208999999999889</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2404,12 +2402,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.25</v>
+        <v>131.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>72</v>
       </c>
@@ -2424,7 +2422,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="52"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34394</v>
       </c>
@@ -2444,7 +2442,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>34425</v>
@@ -2465,7 +2463,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f t="shared" ref="A13:A19" si="0">EDATE(A12,1)</f>
         <v>34455</v>
@@ -2486,7 +2484,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -2507,7 +2505,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -2528,7 +2526,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -2549,7 +2547,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -2570,12 +2568,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>34608</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="13">
@@ -2597,12 +2595,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>34639</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="13">
@@ -2620,12 +2618,12 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>34669</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="13">
@@ -2643,15 +2641,15 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="55">
+      <c r="K20" s="54">
         <v>45282</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="13"/>
@@ -2665,12 +2663,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f>EDATE(A20,1)</f>
         <v>34700</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
@@ -2686,12 +2684,12 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f>EDATE(A22,1)</f>
         <v>34731</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
@@ -2707,12 +2705,12 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" ref="A24:A33" si="1">EDATE(A23,1)</f>
         <v>34759</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
@@ -2728,12 +2726,12 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>34790</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="13">
@@ -2751,12 +2749,12 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>34820</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
@@ -2772,12 +2770,12 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>34851</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
@@ -2793,12 +2791,12 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>34881</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
@@ -2814,12 +2812,12 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>34912</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="13">
@@ -2841,12 +2839,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>34943</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
@@ -2862,12 +2860,12 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>34973</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
@@ -2883,12 +2881,12 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>35004</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
@@ -2904,12 +2902,12 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>35034</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
@@ -2925,11 +2923,11 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
       <c r="E34" s="13"/>
@@ -2943,12 +2941,12 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>35065</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
@@ -2964,12 +2962,12 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f>EDATE(A35,1)</f>
         <v>35096</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
@@ -2985,12 +2983,12 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f t="shared" ref="A37:A46" si="2">EDATE(A36,1)</f>
         <v>35125</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
@@ -3006,12 +3004,12 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="2"/>
         <v>35156</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
@@ -3027,12 +3025,12 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>35186</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="13">
@@ -3050,16 +3048,16 @@
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="55">
+      <c r="K39" s="54">
         <v>45069</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>35217</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
@@ -3075,12 +3073,12 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>35247</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
@@ -3096,12 +3094,12 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>35278</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
@@ -3117,12 +3115,12 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>35309</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
@@ -3138,12 +3136,12 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>35339</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
@@ -3159,12 +3157,12 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>35370</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>80</v>
       </c>
       <c r="C45" s="13">
@@ -3182,12 +3180,12 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f t="shared" si="2"/>
         <v>35400</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="13">
@@ -3207,9 +3205,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="13"/>
@@ -3227,11 +3225,11 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="13"/>
@@ -3245,12 +3243,12 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f>EDATE(A46,1)</f>
         <v>35431</v>
       </c>
-      <c r="B49" s="53"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -3266,12 +3264,12 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f>EDATE(A49,1)</f>
         <v>35462</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
@@ -3287,12 +3285,12 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" ref="A51:A59" si="3">EDATE(A50,1)</f>
         <v>35490</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="13">
@@ -3314,12 +3312,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="3"/>
         <v>35521</v>
       </c>
-      <c r="B52" s="53"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
@@ -3335,12 +3333,12 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>35551</v>
       </c>
-      <c r="B53" s="53"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
@@ -3356,12 +3354,12 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>35582</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
@@ -3377,12 +3375,12 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>35612</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
@@ -3398,12 +3396,12 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>35643</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
@@ -3419,7 +3417,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f t="shared" si="3"/>
         <v>35674</v>
@@ -3440,7 +3438,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f t="shared" si="3"/>
         <v>35704</v>
@@ -3461,12 +3459,12 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>35735</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="13">
@@ -3486,12 +3484,12 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f>EDATE(A59,1)</f>
         <v>35765</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="13">
@@ -3511,11 +3509,11 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="13"/>
@@ -3529,12 +3527,12 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f>EDATE(A60,1)</f>
         <v>35796</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="13">
@@ -3556,9 +3554,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="13"/>
@@ -3575,7 +3573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A62,1)</f>
         <v>35827</v>
@@ -3596,12 +3594,12 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" ref="A65:A73" si="4">EDATE(A64,1)</f>
         <v>35855</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="13">
@@ -3623,12 +3621,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>35886</v>
       </c>
-      <c r="B66" s="53"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
@@ -3644,12 +3642,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>35916</v>
       </c>
-      <c r="B67" s="53"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
@@ -3665,12 +3663,12 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="4"/>
         <v>35947</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
@@ -3686,12 +3684,12 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>35977</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
@@ -3707,12 +3705,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>36008</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
@@ -3728,12 +3726,12 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f t="shared" si="4"/>
         <v>36039</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
@@ -3749,12 +3747,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="4"/>
         <v>36069</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="13">
@@ -3772,16 +3770,16 @@
       <c r="H72" s="39"/>
       <c r="I72" s="13"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="55">
+      <c r="K72" s="54">
         <v>45208</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="4"/>
         <v>36100</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
@@ -3797,12 +3795,12 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>36130</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C74" s="13">
@@ -3822,11 +3820,11 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="13"/>
@@ -3840,12 +3838,12 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f>EDATE(A74,1)</f>
         <v>36161</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="13">
@@ -3867,12 +3865,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f>EDATE(A76,1)</f>
         <v>36192</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C77" s="13">
@@ -3890,16 +3888,16 @@
       <c r="H77" s="39"/>
       <c r="I77" s="13"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="55">
+      <c r="K77" s="54">
         <v>44976</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f t="shared" ref="A78:A87" si="5">EDATE(A77,1)</f>
         <v>36220</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C78" s="13">
@@ -3921,12 +3919,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>36251</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -3942,12 +3940,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>36281</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
@@ -3963,12 +3961,12 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>36312</v>
       </c>
-      <c r="B81" s="53"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -3984,12 +3982,12 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f t="shared" si="5"/>
         <v>36342</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C82" s="13">
@@ -4009,12 +4007,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>36373</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
@@ -4030,12 +4028,12 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>36404</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
@@ -4051,12 +4049,12 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>36434</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -4072,12 +4070,12 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" si="5"/>
         <v>36465</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -4093,12 +4091,12 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="5"/>
         <v>36495</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="13">
@@ -4118,11 +4116,11 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="13"/>
@@ -4136,12 +4134,12 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>36526</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
@@ -4157,12 +4155,12 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f>EDATE(A89,1)</f>
         <v>36557</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
@@ -4178,12 +4176,12 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f t="shared" ref="A91:A101" si="6">EDATE(A90,1)</f>
         <v>36586</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
@@ -4199,12 +4197,12 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f t="shared" si="6"/>
         <v>36617</v>
       </c>
-      <c r="B92" s="53"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
@@ -4220,12 +4218,12 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="6"/>
         <v>36647</v>
       </c>
-      <c r="B93" s="53"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
@@ -4241,12 +4239,12 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="6"/>
         <v>36678</v>
       </c>
-      <c r="B94" s="53"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
@@ -4262,12 +4260,12 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="6"/>
         <v>36708</v>
       </c>
-      <c r="B95" s="53"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -4283,12 +4281,12 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>36739</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
@@ -4304,12 +4302,12 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="6"/>
         <v>36770</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C97" s="13">
@@ -4327,16 +4325,16 @@
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="55">
+      <c r="K97" s="54">
         <v>45181</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f>EDATE(A97,1)</f>
         <v>36800</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="13">
@@ -4356,9 +4354,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C99" s="13"/>
@@ -4373,12 +4371,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>36831</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C100" s="13">
@@ -4398,12 +4396,12 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f t="shared" si="6"/>
         <v>36861</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="13">
@@ -4421,15 +4419,15 @@
       <c r="H101" s="39"/>
       <c r="I101" s="13"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="55">
+      <c r="K101" s="54">
         <v>45278</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="13"/>
@@ -4443,12 +4441,12 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <f>EDATE(A101,1)</f>
         <v>36892</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C103" s="13">
@@ -4470,9 +4468,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="13"/>
@@ -4487,12 +4485,12 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A103,1)</f>
         <v>36923</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="13">
@@ -4510,16 +4508,16 @@
       </c>
       <c r="I105" s="13"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="55">
+      <c r="K105" s="54">
         <v>44965</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f t="shared" ref="A106:A115" si="7">EDATE(A105,1)</f>
         <v>36951</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="13">
@@ -4541,12 +4539,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="7"/>
         <v>36982</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="13">
         <v>1.25</v>
       </c>
@@ -4562,12 +4560,12 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f t="shared" si="7"/>
         <v>37012</v>
       </c>
-      <c r="B108" s="53"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="13">
         <v>1.25</v>
       </c>
@@ -4583,12 +4581,12 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f t="shared" si="7"/>
         <v>37043</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="13">
@@ -4608,12 +4606,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f t="shared" si="7"/>
         <v>37073</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="13">
         <v>1.25</v>
       </c>
@@ -4629,12 +4627,12 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f t="shared" si="7"/>
         <v>37104</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C111" s="13">
@@ -4656,12 +4654,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f t="shared" si="7"/>
         <v>37135</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="13">
         <v>1.25</v>
       </c>
@@ -4677,12 +4675,12 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" si="7"/>
         <v>37165</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="13">
         <v>1.25</v>
       </c>
@@ -4698,12 +4696,12 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="7"/>
         <v>37196</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="13">
         <v>1.25</v>
       </c>
@@ -4719,12 +4717,12 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f t="shared" si="7"/>
         <v>37226</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C115" s="13">
@@ -4746,9 +4744,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C116" s="13"/>
@@ -4766,11 +4764,11 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="53"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="13"/>
@@ -4784,12 +4782,12 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f>EDATE(A115,1)</f>
         <v>37257</v>
       </c>
-      <c r="B118" s="53"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
@@ -4805,12 +4803,12 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A118,1)</f>
         <v>37288</v>
       </c>
-      <c r="B119" s="53" t="s">
+      <c r="B119" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="13">
@@ -4832,12 +4830,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f t="shared" ref="A120:A129" si="8">EDATE(A119,1)</f>
         <v>37316</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C120" s="13">
@@ -4859,12 +4857,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <f t="shared" si="8"/>
         <v>37347</v>
       </c>
-      <c r="B121" s="53"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="13">
         <v>1.25</v>
       </c>
@@ -4880,12 +4878,12 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f t="shared" si="8"/>
         <v>37377</v>
       </c>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C122" s="13">
@@ -4907,12 +4905,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f t="shared" si="8"/>
         <v>37408</v>
       </c>
-      <c r="B123" s="53"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
@@ -4928,12 +4926,12 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" si="8"/>
         <v>37438</v>
       </c>
-      <c r="B124" s="53" t="s">
+      <c r="B124" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C124" s="13">
@@ -4955,12 +4953,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f t="shared" si="8"/>
         <v>37469</v>
       </c>
-      <c r="B125" s="53"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="13">
         <v>1.25</v>
       </c>
@@ -4976,12 +4974,12 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <f t="shared" si="8"/>
         <v>37500</v>
       </c>
-      <c r="B126" s="53"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
@@ -4997,12 +4995,12 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f t="shared" si="8"/>
         <v>37530</v>
       </c>
-      <c r="B127" s="53" t="s">
+      <c r="B127" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C127" s="13">
@@ -5024,12 +5022,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f t="shared" si="8"/>
         <v>37561</v>
       </c>
-      <c r="B128" s="53" t="s">
+      <c r="B128" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C128" s="13">
@@ -5047,16 +5045,16 @@
       <c r="H128" s="39"/>
       <c r="I128" s="13"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="55">
+      <c r="K128" s="54">
         <v>45270</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="8"/>
         <v>37591</v>
       </c>
-      <c r="B129" s="53"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="13">
         <v>1.25</v>
       </c>
@@ -5072,11 +5070,11 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="53"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
       <c r="E130" s="13"/>
@@ -5090,12 +5088,12 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
       </c>
-      <c r="B131" s="53"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
@@ -5111,12 +5109,12 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f>EDATE(A131,1)</f>
         <v>37653</v>
       </c>
-      <c r="B132" s="53"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
@@ -5132,12 +5130,12 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f t="shared" ref="A133:A144" si="9">EDATE(A132,1)</f>
         <v>37681</v>
       </c>
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C133" s="13">
@@ -5159,9 +5157,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
-      <c r="B134" s="53" t="s">
+      <c r="B134" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C134" s="13"/>
@@ -5178,12 +5176,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>37712</v>
       </c>
-      <c r="B135" s="53"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="13">
         <v>1.25</v>
       </c>
@@ -5199,12 +5197,12 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f t="shared" si="9"/>
         <v>37742</v>
       </c>
-      <c r="B136" s="53"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="13">
         <v>1.25</v>
       </c>
@@ -5220,12 +5218,12 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="9"/>
         <v>37773</v>
       </c>
-      <c r="B137" s="53"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="13">
         <v>1.25</v>
       </c>
@@ -5241,12 +5239,12 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="9"/>
         <v>37803</v>
       </c>
-      <c r="B138" s="53"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
@@ -5262,12 +5260,12 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f t="shared" si="9"/>
         <v>37834</v>
       </c>
-      <c r="B139" s="53"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="13">
         <v>1.25</v>
       </c>
@@ -5283,12 +5281,12 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f t="shared" si="9"/>
         <v>37865</v>
       </c>
-      <c r="B140" s="53" t="s">
+      <c r="B140" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C140" s="13">
@@ -5306,13 +5304,13 @@
       </c>
       <c r="I140" s="13"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="55">
+      <c r="K140" s="54">
         <v>45195</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C141" s="13"/>
@@ -5327,12 +5325,12 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
       </c>
-      <c r="B142" s="53" t="s">
+      <c r="B142" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C142" s="13">
@@ -5352,12 +5350,12 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f t="shared" si="9"/>
         <v>37926</v>
       </c>
-      <c r="B143" s="53" t="s">
+      <c r="B143" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C143" s="13">
@@ -5377,12 +5375,12 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" si="9"/>
         <v>37956</v>
       </c>
-      <c r="B144" s="53" t="s">
+      <c r="B144" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C144" s="13">
@@ -5402,9 +5400,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
-      <c r="B145" s="53" t="s">
+      <c r="B145" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C145" s="13"/>
@@ -5419,11 +5417,11 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B146" s="53"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="39"/>
       <c r="E146" s="13"/>
@@ -5437,12 +5435,12 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
       </c>
-      <c r="B147" s="53" t="s">
+      <c r="B147" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C147" s="13">
@@ -5460,13 +5458,13 @@
       </c>
       <c r="I147" s="13"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="55">
+      <c r="K147" s="54">
         <v>44946</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
-      <c r="B148" s="53" t="s">
+      <c r="B148" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C148" s="13"/>
@@ -5481,12 +5479,12 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A147,1)</f>
         <v>38018</v>
       </c>
-      <c r="B149" s="53" t="s">
+      <c r="B149" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C149" s="13">
@@ -5506,12 +5504,12 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <f t="shared" ref="A150:A165" si="10">EDATE(A149,1)</f>
         <v>38047</v>
       </c>
-      <c r="B150" s="53" t="s">
+      <c r="B150" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C150" s="13">
@@ -5531,12 +5529,12 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <f t="shared" si="10"/>
         <v>38078</v>
       </c>
-      <c r="B151" s="53" t="s">
+      <c r="B151" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C151" s="13">
@@ -5558,9 +5556,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
-      <c r="B152" s="53" t="s">
+      <c r="B152" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C152" s="13"/>
@@ -5577,9 +5575,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
-      <c r="B153" s="53" t="s">
+      <c r="B153" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C153" s="13"/>
@@ -5594,9 +5592,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
-      <c r="B154" s="53" t="s">
+      <c r="B154" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C154" s="13"/>
@@ -5607,16 +5605,16 @@
       <c r="H154" s="39"/>
       <c r="I154" s="13"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="54" t="s">
+      <c r="K154" s="53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A151,1)</f>
         <v>38108</v>
       </c>
-      <c r="B155" s="53"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="13">
         <v>1.25</v>
       </c>
@@ -5632,12 +5630,12 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f t="shared" si="10"/>
         <v>38139</v>
       </c>
-      <c r="B156" s="53" t="s">
+      <c r="B156" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C156" s="13">
@@ -5659,12 +5657,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f t="shared" si="10"/>
         <v>38169</v>
       </c>
-      <c r="B157" s="53" t="s">
+      <c r="B157" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C157" s="13">
@@ -5684,12 +5682,12 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f t="shared" si="10"/>
         <v>38200</v>
       </c>
-      <c r="B158" s="53" t="s">
+      <c r="B158" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C158" s="13">
@@ -5709,12 +5707,12 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f t="shared" si="10"/>
         <v>38231</v>
       </c>
-      <c r="B159" s="53" t="s">
+      <c r="B159" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C159" s="13">
@@ -5732,13 +5730,13 @@
       </c>
       <c r="I159" s="13"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="55">
+      <c r="K159" s="54">
         <v>45196</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
-      <c r="B160" s="53" t="s">
+      <c r="B160" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C160" s="13"/>
@@ -5753,12 +5751,12 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>38261</v>
       </c>
-      <c r="B161" s="53" t="s">
+      <c r="B161" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C161" s="13">
@@ -5776,13 +5774,13 @@
       </c>
       <c r="I161" s="13"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="55">
+      <c r="K161" s="54">
         <v>45206</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C162" s="13"/>
@@ -5795,13 +5793,13 @@
       </c>
       <c r="I162" s="13"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="55">
+      <c r="K162" s="54">
         <v>45221</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
-      <c r="B163" s="53" t="s">
+      <c r="B163" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C163" s="13"/>
@@ -5816,12 +5814,12 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f>EDATE(A161,1)</f>
         <v>38292</v>
       </c>
-      <c r="B164" s="53" t="s">
+      <c r="B164" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C164" s="13">
@@ -5841,12 +5839,12 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f t="shared" si="10"/>
         <v>38322</v>
       </c>
-      <c r="B165" s="53" t="s">
+      <c r="B165" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C165" s="13">
@@ -5866,11 +5864,11 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B166" s="53"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="13"/>
       <c r="D166" s="39"/>
       <c r="E166" s="13"/>
@@ -5884,12 +5882,12 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EDATE(A165,1)</f>
         <v>38353</v>
       </c>
-      <c r="B167" s="53" t="s">
+      <c r="B167" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C167" s="13">
@@ -5907,13 +5905,13 @@
       </c>
       <c r="I167" s="13"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="55">
+      <c r="K167" s="54">
         <v>44946</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
-      <c r="B168" s="53" t="s">
+      <c r="B168" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C168" s="13"/>
@@ -5930,9 +5928,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
-      <c r="B169" s="53" t="s">
+      <c r="B169" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C169" s="13"/>
@@ -5947,12 +5945,12 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <f>EDATE(A167,1)</f>
         <v>38384</v>
       </c>
-      <c r="B170" s="53" t="s">
+      <c r="B170" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C170" s="13">
@@ -5972,7 +5970,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f t="shared" ref="A171:A180" si="11">EDATE(A170,1)</f>
         <v>38412</v>
@@ -5997,12 +5995,12 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <f t="shared" si="11"/>
         <v>38443</v>
       </c>
-      <c r="B172" s="53" t="s">
+      <c r="B172" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C172" s="13">
@@ -6024,9 +6022,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
-      <c r="B173" s="53" t="s">
+      <c r="B173" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C173" s="13"/>
@@ -6041,12 +6039,12 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f>EDATE(A172,1)</f>
         <v>38473</v>
       </c>
-      <c r="B174" s="53" t="s">
+      <c r="B174" s="20" t="s">
         <v>148</v>
       </c>
       <c r="C174" s="13">
@@ -6066,12 +6064,12 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f t="shared" si="11"/>
         <v>38504</v>
       </c>
-      <c r="B175" s="53" t="s">
+      <c r="B175" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C175" s="13">
@@ -6091,12 +6089,12 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <f t="shared" si="11"/>
         <v>38534</v>
       </c>
-      <c r="B176" s="53" t="s">
+      <c r="B176" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C176" s="13">
@@ -6116,9 +6114,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
-      <c r="B177" s="53" t="s">
+      <c r="B177" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C177" s="13"/>
@@ -6133,12 +6131,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <f>EDATE(A176,1)</f>
         <v>38565</v>
       </c>
-      <c r="B178" s="53" t="s">
+      <c r="B178" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C178" s="13">
@@ -6158,12 +6156,12 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f t="shared" si="11"/>
         <v>38596</v>
       </c>
-      <c r="B179" s="53" t="s">
+      <c r="B179" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C179" s="13">
@@ -6183,12 +6181,12 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f t="shared" si="11"/>
         <v>38626</v>
       </c>
-      <c r="B180" s="53" t="s">
+      <c r="B180" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C180" s="13">
@@ -6206,13 +6204,13 @@
       </c>
       <c r="I180" s="13"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="55">
+      <c r="K180" s="54">
         <v>45203</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
-      <c r="B181" s="53" t="s">
+      <c r="B181" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C181" s="13"/>
@@ -6227,12 +6225,12 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f>EDATE(A180,1)</f>
         <v>38657</v>
       </c>
-      <c r="B182" s="53" t="s">
+      <c r="B182" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C182" s="13">
@@ -6254,9 +6252,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C183" s="13"/>
@@ -6271,12 +6269,12 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <f>EDATE(A182,1)</f>
         <v>38687</v>
       </c>
-      <c r="B184" s="53" t="s">
+      <c r="B184" s="20" t="s">
         <v>156</v>
       </c>
       <c r="C184" s="13">
@@ -6296,11 +6294,11 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B185" s="53"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
       <c r="E185" s="13"/>
@@ -6314,12 +6312,12 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f>EDATE(A184,1)</f>
         <v>38718</v>
       </c>
-      <c r="B186" s="53" t="s">
+      <c r="B186" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C186" s="13">
@@ -6341,9 +6339,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
-      <c r="B187" s="53" t="s">
+      <c r="B187" s="20" t="s">
         <v>160</v>
       </c>
       <c r="C187" s="13"/>
@@ -6358,12 +6356,12 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f>EDATE(A186,1)</f>
         <v>38749</v>
       </c>
-      <c r="B188" s="53" t="s">
+      <c r="B188" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="13">
@@ -6381,13 +6379,13 @@
       </c>
       <c r="I188" s="13"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="55">
+      <c r="K188" s="54">
         <v>44965</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
-      <c r="B189" s="53" t="s">
+      <c r="B189" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C189" s="13"/>
@@ -6402,9 +6400,9 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
-      <c r="B190" s="53" t="s">
+      <c r="B190" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C190" s="13"/>
@@ -6419,12 +6417,12 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>38777</v>
       </c>
-      <c r="B191" s="53" t="s">
+      <c r="B191" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C191" s="13">
@@ -6444,12 +6442,12 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f t="shared" ref="A192:A198" si="12">EDATE(A191,1)</f>
         <v>38808</v>
       </c>
-      <c r="B192" s="53" t="s">
+      <c r="B192" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C192" s="13">
@@ -6469,12 +6467,12 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <f t="shared" si="12"/>
         <v>38838</v>
       </c>
-      <c r="B193" s="53" t="s">
+      <c r="B193" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C193" s="13">
@@ -6492,13 +6490,13 @@
       </c>
       <c r="I193" s="13"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="55">
+      <c r="K193" s="54">
         <v>45075</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
-      <c r="B194" s="53" t="s">
+      <c r="B194" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C194" s="13"/>
@@ -6514,13 +6512,13 @@
       </c>
       <c r="I194" s="13"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="55">
+      <c r="K194" s="54">
         <v>45076</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
-      <c r="B195" s="53" t="s">
+      <c r="B195" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C195" s="13"/>
@@ -6538,9 +6536,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
-      <c r="B196" s="53" t="s">
+      <c r="B196" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C196" s="13"/>
@@ -6558,12 +6556,12 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <f>EDATE(A193,1)</f>
         <v>38869</v>
       </c>
-      <c r="B197" s="53" t="s">
+      <c r="B197" s="20" t="s">
         <v>167</v>
       </c>
       <c r="C197" s="13">
@@ -6583,12 +6581,12 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <f t="shared" si="12"/>
         <v>38899</v>
       </c>
-      <c r="B198" s="53" t="s">
+      <c r="B198" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C198" s="13">
@@ -6610,9 +6608,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
-      <c r="B199" s="53" t="s">
+      <c r="B199" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C199" s="13"/>
@@ -6627,9 +6625,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
-      <c r="B200" s="53" t="s">
+      <c r="B200" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C200" s="13"/>
@@ -6644,12 +6642,12 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <f>EDATE(A198,1)</f>
         <v>38930</v>
       </c>
-      <c r="B201" s="53" t="s">
+      <c r="B201" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C201" s="13">
@@ -6669,9 +6667,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
-      <c r="B202" s="53" t="s">
+      <c r="B202" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C202" s="13"/>
@@ -6684,13 +6682,13 @@
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="55">
+      <c r="K202" s="54">
         <v>45146</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
-      <c r="B203" s="53" t="s">
+      <c r="B203" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C203" s="13"/>
@@ -6703,13 +6701,13 @@
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="55">
+      <c r="K203" s="54">
         <v>45149</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
-      <c r="B204" s="53" t="s">
+      <c r="B204" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C204" s="13"/>
@@ -6726,9 +6724,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
-      <c r="B205" s="53" t="s">
+      <c r="B205" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C205" s="13"/>
@@ -6741,13 +6739,13 @@
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="55">
+      <c r="K205" s="54">
         <v>45161</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
-      <c r="B206" s="53" t="s">
+      <c r="B206" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C206" s="13"/>
@@ -6764,9 +6762,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
-      <c r="B207" s="53" t="s">
+      <c r="B207" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C207" s="13"/>
@@ -6781,12 +6779,12 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <f>EDATE(A201,1)</f>
         <v>38961</v>
       </c>
-      <c r="B208" s="53" t="s">
+      <c r="B208" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C208" s="13">
@@ -6804,13 +6802,13 @@
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="55">
+      <c r="K208" s="54">
         <v>45174</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
-      <c r="B209" s="53" t="s">
+      <c r="B209" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C209" s="13"/>
@@ -6823,13 +6821,13 @@
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="55">
+      <c r="K209" s="54">
         <v>45177</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
-      <c r="B210" s="53" t="s">
+      <c r="B210" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C210" s="13"/>
@@ -6842,13 +6840,13 @@
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="55">
+      <c r="K210" s="54">
         <v>45180</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
-      <c r="B211" s="53" t="s">
+      <c r="B211" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C211" s="13"/>
@@ -6861,13 +6859,13 @@
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="55">
+      <c r="K211" s="54">
         <v>45194</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
-      <c r="B212" s="53" t="s">
+      <c r="B212" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C212" s="13"/>
@@ -6882,12 +6880,12 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A208,1)</f>
         <v>38991</v>
       </c>
-      <c r="B213" s="53" t="s">
+      <c r="B213" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C213" s="13">
@@ -6905,13 +6903,13 @@
       <c r="H213" s="39"/>
       <c r="I213" s="13"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="55">
+      <c r="K213" s="54">
         <v>45222</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
-      <c r="B214" s="53" t="s">
+      <c r="B214" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C214" s="13"/>
@@ -6924,13 +6922,13 @@
       </c>
       <c r="I214" s="13"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="55">
+      <c r="K214" s="54">
         <v>45232</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
-      <c r="B215" s="53" t="s">
+      <c r="B215" s="20" t="s">
         <v>176</v>
       </c>
       <c r="C215" s="13"/>
@@ -6945,12 +6943,12 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f>EDATE(A213,1)</f>
         <v>39022</v>
       </c>
-      <c r="B216" s="53" t="s">
+      <c r="B216" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C216" s="13">
@@ -6968,13 +6966,13 @@
       </c>
       <c r="I216" s="13"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="55">
+      <c r="K216" s="54">
         <v>45238</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
-      <c r="B217" s="53" t="s">
+      <c r="B217" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C217" s="13"/>
@@ -6987,13 +6985,13 @@
       </c>
       <c r="I217" s="13"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="55">
+      <c r="K217" s="54">
         <v>45247</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
-      <c r="B218" s="53" t="s">
+      <c r="B218" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C218" s="13"/>
@@ -7008,12 +7006,12 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <f>EDATE(A216,1)</f>
         <v>39052</v>
       </c>
-      <c r="B219" s="53" t="s">
+      <c r="B219" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C219" s="13">
@@ -7031,13 +7029,13 @@
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="55">
+      <c r="K219" s="54">
         <v>45271</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
-      <c r="B220" s="53" t="s">
+      <c r="B220" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C220" s="13"/>
@@ -7055,9 +7053,9 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
-      <c r="B221" s="53" t="s">
+      <c r="B221" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C221" s="13"/>
@@ -7075,11 +7073,11 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="B222" s="53"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="13"/>
       <c r="D222" s="39"/>
       <c r="E222" s="13"/>
@@ -7093,12 +7091,12 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A219,1)</f>
         <v>39083</v>
       </c>
-      <c r="B223" s="53" t="s">
+      <c r="B223" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C223" s="13">
@@ -7116,13 +7114,13 @@
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="55">
+      <c r="K223" s="54">
         <v>44937</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
-      <c r="B224" s="53" t="s">
+      <c r="B224" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C224" s="13"/>
@@ -7139,9 +7137,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
-      <c r="B225" s="53" t="s">
+      <c r="B225" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C225" s="13"/>
@@ -7156,9 +7154,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
-      <c r="B226" s="53" t="s">
+      <c r="B226" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C226" s="13"/>
@@ -7171,13 +7169,13 @@
       </c>
       <c r="I226" s="13"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="55">
+      <c r="K226" s="54">
         <v>44966</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
-      <c r="B227" s="53" t="s">
+      <c r="B227" s="20" t="s">
         <v>180</v>
       </c>
       <c r="C227" s="13"/>
@@ -7192,12 +7190,12 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A223,1)</f>
         <v>39114</v>
       </c>
-      <c r="B228" s="53" t="s">
+      <c r="B228" s="20" t="s">
         <v>183</v>
       </c>
       <c r="C228" s="13">
@@ -7217,12 +7215,12 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <f t="shared" ref="A229:A242" si="13">EDATE(A228,1)</f>
         <v>39142</v>
       </c>
-      <c r="B229" s="53" t="s">
+      <c r="B229" s="20" t="s">
         <v>184</v>
       </c>
       <c r="C229" s="13">
@@ -7242,12 +7240,12 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <f t="shared" si="13"/>
         <v>39173</v>
       </c>
-      <c r="B230" s="53" t="s">
+      <c r="B230" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C230" s="13">
@@ -7265,13 +7263,13 @@
       </c>
       <c r="I230" s="13"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="55">
+      <c r="K230" s="54">
         <v>45032</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
-      <c r="B231" s="53" t="s">
+      <c r="B231" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C231" s="13"/>
@@ -7286,12 +7284,12 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A230,1)</f>
         <v>39203</v>
       </c>
-      <c r="B232" s="53" t="s">
+      <c r="B232" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C232" s="13">
@@ -7309,13 +7307,13 @@
       </c>
       <c r="I232" s="13"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="55">
+      <c r="K232" s="54">
         <v>45068</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
-      <c r="B233" s="53" t="s">
+      <c r="B233" s="20" t="s">
         <v>186</v>
       </c>
       <c r="C233" s="13"/>
@@ -7330,12 +7328,12 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>39234</v>
       </c>
-      <c r="B234" s="53" t="s">
+      <c r="B234" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C234" s="13">
@@ -7353,13 +7351,13 @@
       </c>
       <c r="I234" s="13"/>
       <c r="J234" s="11"/>
-      <c r="K234" s="55">
+      <c r="K234" s="54">
         <v>45099</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
-      <c r="B235" s="53" t="s">
+      <c r="B235" s="20" t="s">
         <v>187</v>
       </c>
       <c r="C235" s="13"/>
@@ -7374,12 +7372,12 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>39264</v>
       </c>
-      <c r="B236" s="53" t="s">
+      <c r="B236" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C236" s="13">
@@ -7397,13 +7395,13 @@
       </c>
       <c r="I236" s="13"/>
       <c r="J236" s="11"/>
-      <c r="K236" s="55">
+      <c r="K236" s="54">
         <v>45113</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
-      <c r="B237" s="53" t="s">
+      <c r="B237" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C237" s="13"/>
@@ -7418,12 +7416,12 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f>EDATE(A236,1)</f>
         <v>39295</v>
       </c>
-      <c r="B238" s="53" t="s">
+      <c r="B238" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C238" s="13">
@@ -7441,13 +7439,13 @@
       </c>
       <c r="I238" s="13"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="55">
+      <c r="K238" s="54">
         <v>45166</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
-      <c r="B239" s="53" t="s">
+      <c r="B239" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C239" s="13"/>
@@ -7464,9 +7462,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
-      <c r="B240" s="53" t="s">
+      <c r="B240" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C240" s="13"/>
@@ -7481,12 +7479,12 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <f>EDATE(A238,1)</f>
         <v>39326</v>
       </c>
-      <c r="B241" s="53" t="s">
+      <c r="B241" s="20" t="s">
         <v>191</v>
       </c>
       <c r="C241" s="13">
@@ -7506,12 +7504,12 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f t="shared" si="13"/>
         <v>39356</v>
       </c>
-      <c r="B242" s="53" t="s">
+      <c r="B242" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C242" s="13">
@@ -7531,9 +7529,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
-      <c r="B243" s="53" t="s">
+      <c r="B243" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C243" s="13"/>
@@ -7546,13 +7544,13 @@
       </c>
       <c r="I243" s="13"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="55">
+      <c r="K243" s="54">
         <v>45224</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
-      <c r="B244" s="53" t="s">
+      <c r="B244" s="20" t="s">
         <v>192</v>
       </c>
       <c r="C244" s="13"/>
@@ -7567,12 +7565,12 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f>EDATE(A242,1)</f>
         <v>39387</v>
       </c>
-      <c r="B245" s="53" t="s">
+      <c r="B245" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C245" s="13">
@@ -7590,13 +7588,13 @@
       </c>
       <c r="I245" s="13"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="55">
+      <c r="K245" s="54">
         <v>45238</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
-      <c r="B246" s="53" t="s">
+      <c r="B246" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C246" s="13"/>
@@ -7607,13 +7605,13 @@
       <c r="H246" s="39"/>
       <c r="I246" s="13"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="55">
+      <c r="K246" s="54">
         <v>45270</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
-      <c r="B247" s="53" t="s">
+      <c r="B247" s="20" t="s">
         <v>194</v>
       </c>
       <c r="C247" s="13"/>
@@ -7628,12 +7626,12 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>39417</v>
       </c>
-      <c r="B248" s="53" t="s">
+      <c r="B248" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C248" s="13">
@@ -7653,9 +7651,9 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
-      <c r="B249" s="53" t="s">
+      <c r="B249" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C249" s="13"/>
@@ -7670,11 +7668,11 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B250" s="53"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="13"/>
       <c r="D250" s="39"/>
       <c r="E250" s="13"/>
@@ -7688,12 +7686,12 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A248,1)</f>
         <v>39448</v>
       </c>
-      <c r="B251" s="53" t="s">
+      <c r="B251" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C251" s="13">
@@ -7711,13 +7709,13 @@
       </c>
       <c r="I251" s="13"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="55">
+      <c r="K251" s="54">
         <v>44954</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
-      <c r="B252" s="53" t="s">
+      <c r="B252" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C252" s="13"/>
@@ -7732,12 +7730,12 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f>EDATE(A251,1)</f>
         <v>39479</v>
       </c>
-      <c r="B253" s="53" t="s">
+      <c r="B253" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C253" s="13">
@@ -7757,12 +7755,12 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f t="shared" ref="A254:A256" si="14">EDATE(A253,1)</f>
         <v>39508</v>
       </c>
-      <c r="B254" s="53" t="s">
+      <c r="B254" s="20" t="s">
         <v>198</v>
       </c>
       <c r="C254" s="13">
@@ -7782,12 +7780,12 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f t="shared" si="14"/>
         <v>39539</v>
       </c>
-      <c r="B255" s="53" t="s">
+      <c r="B255" s="20" t="s">
         <v>199</v>
       </c>
       <c r="C255" s="13">
@@ -7807,12 +7805,12 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f t="shared" si="14"/>
         <v>39569</v>
       </c>
-      <c r="B256" s="53" t="s">
+      <c r="B256" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C256" s="13">
@@ -7830,13 +7828,13 @@
       </c>
       <c r="I256" s="13"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="55">
+      <c r="K256" s="54">
         <v>45069</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
-      <c r="B257" s="53" t="s">
+      <c r="B257" s="20" t="s">
         <v>200</v>
       </c>
       <c r="C257" s="13"/>
@@ -7851,12 +7849,12 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <f>EDATE(A256,1)</f>
         <v>39600</v>
       </c>
-      <c r="B258" s="53" t="s">
+      <c r="B258" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C258" s="13">
@@ -7876,9 +7874,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
-      <c r="B259" s="53" t="s">
+      <c r="B259" s="20" t="s">
         <v>201</v>
       </c>
       <c r="C259" s="13"/>
@@ -7893,12 +7891,12 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A258,1)</f>
         <v>39630</v>
       </c>
-      <c r="B260" s="53" t="s">
+      <c r="B260" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C260" s="13">
@@ -7916,13 +7914,13 @@
       </c>
       <c r="I260" s="13"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="55">
+      <c r="K260" s="54">
         <v>45117</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
-      <c r="B261" s="53" t="s">
+      <c r="B261" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C261" s="13"/>
@@ -7935,13 +7933,13 @@
       </c>
       <c r="I261" s="13"/>
       <c r="J261" s="11"/>
-      <c r="K261" s="55">
+      <c r="K261" s="54">
         <v>45130</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
-      <c r="B262" s="53" t="s">
+      <c r="B262" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C262" s="13"/>
@@ -7956,12 +7954,12 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <f>EDATE(A260,1)</f>
         <v>39661</v>
       </c>
-      <c r="B263" s="53" t="s">
+      <c r="B263" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C263" s="13">
@@ -7979,13 +7977,13 @@
       </c>
       <c r="I263" s="13"/>
       <c r="J263" s="11"/>
-      <c r="K263" s="55">
+      <c r="K263" s="54">
         <v>45151</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
-      <c r="B264" s="53" t="s">
+      <c r="B264" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C264" s="13"/>
@@ -8000,9 +7998,9 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
-      <c r="B265" s="53" t="s">
+      <c r="B265" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C265" s="13"/>
@@ -8017,12 +8015,12 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A263,1)</f>
         <v>39692</v>
       </c>
-      <c r="B266" s="53" t="s">
+      <c r="B266" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C266" s="13">
@@ -8044,9 +8042,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
-      <c r="B267" s="53" t="s">
+      <c r="B267" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C267" s="13"/>
@@ -8059,13 +8057,13 @@
       </c>
       <c r="I267" s="13"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="55">
+      <c r="K267" s="54">
         <v>45194</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
-      <c r="B268" s="53" t="s">
+      <c r="B268" s="20" t="s">
         <v>204</v>
       </c>
       <c r="C268" s="13"/>
@@ -8080,12 +8078,12 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>39722</v>
       </c>
-      <c r="B269" s="53" t="s">
+      <c r="B269" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C269" s="13">
@@ -8103,13 +8101,13 @@
       </c>
       <c r="I269" s="13"/>
       <c r="J269" s="11"/>
-      <c r="K269" s="55">
+      <c r="K269" s="54">
         <v>45230</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
-      <c r="B270" s="53" t="s">
+      <c r="B270" s="20" t="s">
         <v>206</v>
       </c>
       <c r="C270" s="13"/>
@@ -8124,12 +8122,12 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <f>EDATE(A269,1)</f>
         <v>39753</v>
       </c>
-      <c r="B271" s="53" t="s">
+      <c r="B271" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C271" s="13">
@@ -8147,13 +8145,13 @@
       </c>
       <c r="I271" s="13"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="55">
+      <c r="K271" s="54">
         <v>45250</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
-      <c r="B272" s="53" t="s">
+      <c r="B272" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C272" s="13"/>
@@ -8166,13 +8164,13 @@
       </c>
       <c r="I272" s="13"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="55">
+      <c r="K272" s="54">
         <v>45258</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
-      <c r="B273" s="53" t="s">
+      <c r="B273" s="20" t="s">
         <v>207</v>
       </c>
       <c r="C273" s="13"/>
@@ -8187,12 +8185,12 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>39783</v>
       </c>
-      <c r="B274" s="53" t="s">
+      <c r="B274" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C274" s="13">
@@ -8210,9 +8208,9 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
-      <c r="B275" s="53" t="s">
+      <c r="B275" s="20" t="s">
         <v>208</v>
       </c>
       <c r="C275" s="13"/>
@@ -8230,11 +8228,11 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="B276" s="53"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="13"/>
       <c r="D276" s="39"/>
       <c r="E276" s="13"/>
@@ -8248,12 +8246,12 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f>EDATE(A274,1)</f>
         <v>39814</v>
       </c>
-      <c r="B277" s="53" t="s">
+      <c r="B277" s="20" t="s">
         <v>210</v>
       </c>
       <c r="C277" s="13">
@@ -8273,12 +8271,12 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f>EDATE(A277,1)</f>
         <v>39845</v>
       </c>
-      <c r="B278" s="53" t="s">
+      <c r="B278" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C278" s="13">
@@ -8296,13 +8294,13 @@
       </c>
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="55">
+      <c r="K278" s="54">
         <v>44968</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
-      <c r="B279" s="53" t="s">
+      <c r="B279" s="20" t="s">
         <v>211</v>
       </c>
       <c r="C279" s="13"/>
@@ -8317,12 +8315,12 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>39873</v>
       </c>
-      <c r="B280" s="53" t="s">
+      <c r="B280" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C280" s="13">
@@ -8342,9 +8340,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
-      <c r="B281" s="53" t="s">
+      <c r="B281" s="20" t="s">
         <v>212</v>
       </c>
       <c r="C281" s="13"/>
@@ -8359,12 +8357,12 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>39904</v>
       </c>
-      <c r="B282" s="53" t="s">
+      <c r="B282" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C282" s="13">
@@ -8382,13 +8380,13 @@
       </c>
       <c r="I282" s="13"/>
       <c r="J282" s="11"/>
-      <c r="K282" s="55">
+      <c r="K282" s="54">
         <v>45023</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
-      <c r="B283" s="53" t="s">
+      <c r="B283" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C283" s="13"/>
@@ -8403,9 +8401,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
-      <c r="B284" s="53" t="s">
+      <c r="B284" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C284" s="13"/>
@@ -8422,9 +8420,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
-      <c r="B285" s="53" t="s">
+      <c r="B285" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C285" s="13"/>
@@ -8439,12 +8437,12 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EDATE(A282,1)</f>
         <v>39934</v>
       </c>
-      <c r="B286" s="53" t="s">
+      <c r="B286" s="20" t="s">
         <v>217</v>
       </c>
       <c r="C286" s="13">
@@ -8464,12 +8462,12 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f t="shared" ref="A287:A300" si="15">EDATE(A286,1)</f>
         <v>39965</v>
       </c>
-      <c r="B287" s="53" t="s">
+      <c r="B287" s="20" t="s">
         <v>218</v>
       </c>
       <c r="C287" s="13">
@@ -8489,12 +8487,12 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f t="shared" si="15"/>
         <v>39995</v>
       </c>
-      <c r="B288" s="53" t="s">
+      <c r="B288" s="20" t="s">
         <v>219</v>
       </c>
       <c r="C288" s="13">
@@ -8514,12 +8512,12 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <f t="shared" si="15"/>
         <v>40026</v>
       </c>
-      <c r="B289" s="53" t="s">
+      <c r="B289" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C289" s="13">
@@ -8537,13 +8535,13 @@
       </c>
       <c r="I289" s="13"/>
       <c r="J289" s="11"/>
-      <c r="K289" s="55">
+      <c r="K289" s="54">
         <v>45149</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
-      <c r="B290" s="53" t="s">
+      <c r="B290" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C290" s="13"/>
@@ -8556,13 +8554,13 @@
       </c>
       <c r="I290" s="13"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="55">
+      <c r="K290" s="54">
         <v>45165</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
-      <c r="B291" s="53" t="s">
+      <c r="B291" s="20" t="s">
         <v>220</v>
       </c>
       <c r="C291" s="13"/>
@@ -8577,12 +8575,12 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <f>EDATE(A289,1)</f>
         <v>40057</v>
       </c>
-      <c r="B292" s="53" t="s">
+      <c r="B292" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C292" s="13">
@@ -8604,9 +8602,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
-      <c r="B293" s="53" t="s">
+      <c r="B293" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C293" s="13"/>
@@ -8623,9 +8621,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
-      <c r="B294" s="53" t="s">
+      <c r="B294" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C294" s="13"/>
@@ -8638,13 +8636,13 @@
       </c>
       <c r="I294" s="13"/>
       <c r="J294" s="11"/>
-      <c r="K294" s="55">
+      <c r="K294" s="54">
         <v>45199</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
-      <c r="B295" s="53" t="s">
+      <c r="B295" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C295" s="13"/>
@@ -8659,12 +8657,12 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f>EDATE(A292,1)</f>
         <v>40087</v>
       </c>
-      <c r="B296" s="53" t="s">
+      <c r="B296" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C296" s="13">
@@ -8686,9 +8684,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
-      <c r="B297" s="53" t="s">
+      <c r="B297" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C297" s="13"/>
@@ -8701,13 +8699,13 @@
       </c>
       <c r="I297" s="13"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="55">
+      <c r="K297" s="54">
         <v>45212</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
-      <c r="B298" s="53" t="s">
+      <c r="B298" s="20" t="s">
         <v>224</v>
       </c>
       <c r="C298" s="13"/>
@@ -8722,12 +8720,12 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40118</v>
       </c>
-      <c r="B299" s="53" t="s">
+      <c r="B299" s="20" t="s">
         <v>226</v>
       </c>
       <c r="C299" s="13">
@@ -8747,12 +8745,12 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <f t="shared" si="15"/>
         <v>40148</v>
       </c>
-      <c r="B300" s="53" t="s">
+      <c r="B300" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C300" s="13">
@@ -8774,9 +8772,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
-      <c r="B301" s="53" t="s">
+      <c r="B301" s="20" t="s">
         <v>227</v>
       </c>
       <c r="C301" s="13"/>
@@ -8794,11 +8792,11 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B302" s="53"/>
+      <c r="B302" s="20"/>
       <c r="C302" s="13"/>
       <c r="D302" s="39"/>
       <c r="E302" s="13"/>
@@ -8812,12 +8810,12 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <f>EDATE(A300,1)</f>
         <v>40179</v>
       </c>
-      <c r="B303" s="53" t="s">
+      <c r="B303" s="20" t="s">
         <v>230</v>
       </c>
       <c r="C303" s="13">
@@ -8837,9 +8835,9 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
-      <c r="B304" s="53" t="s">
+      <c r="B304" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C304" s="13"/>
@@ -8852,16 +8850,16 @@
       </c>
       <c r="I304" s="13"/>
       <c r="J304" s="11"/>
-      <c r="K304" s="55">
+      <c r="K304" s="54">
         <v>45149</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f>EDATE(A303,1)</f>
         <v>40210</v>
       </c>
-      <c r="B305" s="53" t="s">
+      <c r="B305" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C305" s="13">
@@ -8879,13 +8877,13 @@
       </c>
       <c r="I305" s="13"/>
       <c r="J305" s="11"/>
-      <c r="K305" s="55">
+      <c r="K305" s="54">
         <v>45165</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
-      <c r="B306" s="53" t="s">
+      <c r="B306" s="20" t="s">
         <v>231</v>
       </c>
       <c r="C306" s="13"/>
@@ -8900,12 +8898,12 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A305,1)</f>
         <v>40238</v>
       </c>
-      <c r="B307" s="53" t="s">
+      <c r="B307" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C307" s="13">
@@ -8925,9 +8923,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
-      <c r="B308" s="53" t="s">
+      <c r="B308" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C308" s="13"/>
@@ -8942,9 +8940,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
-      <c r="B309" s="53" t="s">
+      <c r="B309" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C309" s="13"/>
@@ -8957,16 +8955,16 @@
       </c>
       <c r="I309" s="13"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="55">
+      <c r="K309" s="54">
         <v>45039</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <f>EDATE(A307,1)</f>
         <v>40269</v>
       </c>
-      <c r="B310" s="53" t="s">
+      <c r="B310" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C310" s="13">
@@ -8986,12 +8984,12 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <f t="shared" ref="A311:A325" si="16">EDATE(A310,1)</f>
         <v>40299</v>
       </c>
-      <c r="B311" s="53" t="s">
+      <c r="B311" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C311" s="13">
@@ -9011,12 +9009,12 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f t="shared" si="16"/>
         <v>40330</v>
       </c>
-      <c r="B312" s="53" t="s">
+      <c r="B312" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C312" s="13">
@@ -9036,12 +9034,12 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f t="shared" si="16"/>
         <v>40360</v>
       </c>
-      <c r="B313" s="53" t="s">
+      <c r="B313" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C313" s="13">
@@ -9059,13 +9057,13 @@
       </c>
       <c r="I313" s="13"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="55">
+      <c r="K313" s="54">
         <v>45121</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
-      <c r="B314" s="53" t="s">
+      <c r="B314" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C314" s="13"/>
@@ -9082,9 +9080,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
-      <c r="B315" s="53" t="s">
+      <c r="B315" s="20" t="s">
         <v>236</v>
       </c>
       <c r="C315" s="13"/>
@@ -9099,12 +9097,12 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>40391</v>
       </c>
-      <c r="B316" s="53" t="s">
+      <c r="B316" s="20" t="s">
         <v>238</v>
       </c>
       <c r="C316" s="13">
@@ -9124,12 +9122,12 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f t="shared" si="16"/>
         <v>40422</v>
       </c>
-      <c r="B317" s="53" t="s">
+      <c r="B317" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C317" s="13">
@@ -9151,9 +9149,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
-      <c r="B318" s="53" t="s">
+      <c r="B318" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C318" s="13"/>
@@ -9170,9 +9168,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
-      <c r="B319" s="53" t="s">
+      <c r="B319" s="20" t="s">
         <v>239</v>
       </c>
       <c r="C319" s="13"/>
@@ -9187,9 +9185,9 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
-      <c r="B320" s="53" t="s">
+      <c r="B320" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C320" s="13"/>
@@ -9202,16 +9200,16 @@
       </c>
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="55">
+      <c r="K320" s="54">
         <v>45190</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <f>EDATE(A317,1)</f>
         <v>40452</v>
       </c>
-      <c r="B321" s="53" t="s">
+      <c r="B321" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C321" s="13">
@@ -9233,9 +9231,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
-      <c r="B322" s="53" t="s">
+      <c r="B322" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C322" s="13"/>
@@ -9250,9 +9248,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
-      <c r="B323" s="53" t="s">
+      <c r="B323" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C323" s="13"/>
@@ -9265,16 +9263,16 @@
       </c>
       <c r="I323" s="13"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="55">
+      <c r="K323" s="54">
         <v>45204</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A321,1)</f>
         <v>40483</v>
       </c>
-      <c r="B324" s="53" t="s">
+      <c r="B324" s="20" t="s">
         <v>244</v>
       </c>
       <c r="C324" s="13">
@@ -9294,12 +9292,12 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f t="shared" si="16"/>
         <v>40513</v>
       </c>
-      <c r="B325" s="53" t="s">
+      <c r="B325" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C325" s="13">
@@ -9321,9 +9319,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
-      <c r="B326" s="53" t="s">
+      <c r="B326" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C326" s="13"/>
@@ -9340,9 +9338,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
-      <c r="B327" s="53" t="s">
+      <c r="B327" s="20" t="s">
         <v>245</v>
       </c>
       <c r="C327" s="13"/>
@@ -9360,11 +9358,11 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="B328" s="53"/>
+      <c r="B328" s="20"/>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
       <c r="E328" s="13"/>
@@ -9378,12 +9376,12 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A325,1)</f>
         <v>40544</v>
       </c>
-      <c r="B329" s="53" t="s">
+      <c r="B329" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C329" s="13">
@@ -9405,9 +9403,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
-      <c r="B330" s="53" t="s">
+      <c r="B330" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C330" s="13"/>
@@ -9420,13 +9418,13 @@
       </c>
       <c r="I330" s="13"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="55">
+      <c r="K330" s="54">
         <v>44939</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
-      <c r="B331" s="53" t="s">
+      <c r="B331" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C331" s="13"/>
@@ -9439,13 +9437,13 @@
       </c>
       <c r="I331" s="13"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="55">
+      <c r="K331" s="54">
         <v>44953</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
-      <c r="B332" s="53" t="s">
+      <c r="B332" s="20" t="s">
         <v>249</v>
       </c>
       <c r="C332" s="13"/>
@@ -9460,12 +9458,12 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A329,1)</f>
         <v>40575</v>
       </c>
-      <c r="B333" s="53" t="s">
+      <c r="B333" s="20" t="s">
         <v>238</v>
       </c>
       <c r="C333" s="13">
@@ -9485,9 +9483,9 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
-      <c r="B334" s="53" t="s">
+      <c r="B334" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C334" s="13"/>
@@ -9500,16 +9498,16 @@
       </c>
       <c r="I334" s="13"/>
       <c r="J334" s="11"/>
-      <c r="K334" s="55">
+      <c r="K334" s="54">
         <v>44968</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>40603</v>
       </c>
-      <c r="B335" s="53" t="s">
+      <c r="B335" s="20" t="s">
         <v>250</v>
       </c>
       <c r="C335" s="13">
@@ -9529,12 +9527,12 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f t="shared" ref="A336:A343" si="17">EDATE(A335,1)</f>
         <v>40634</v>
       </c>
-      <c r="B336" s="53" t="s">
+      <c r="B336" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C336" s="13">
@@ -9556,9 +9554,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
-      <c r="B337" s="53" t="s">
+      <c r="B337" s="20" t="s">
         <v>251</v>
       </c>
       <c r="C337" s="13"/>
@@ -9573,12 +9571,12 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>40664</v>
       </c>
-      <c r="B338" s="53" t="s">
+      <c r="B338" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C338" s="13">
@@ -9596,13 +9594,13 @@
       </c>
       <c r="I338" s="13"/>
       <c r="J338" s="11"/>
-      <c r="K338" s="55">
+      <c r="K338" s="54">
         <v>45066</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
-      <c r="B339" s="53" t="s">
+      <c r="B339" s="20" t="s">
         <v>253</v>
       </c>
       <c r="C339" s="13"/>
@@ -9617,12 +9615,12 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <f>EDATE(A338,1)</f>
         <v>40695</v>
       </c>
-      <c r="B340" s="53" t="s">
+      <c r="B340" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C340" s="13">
@@ -9640,13 +9638,13 @@
       </c>
       <c r="I340" s="13"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="55">
+      <c r="K340" s="54">
         <v>45086</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
-      <c r="B341" s="53" t="s">
+      <c r="B341" s="20" t="s">
         <v>254</v>
       </c>
       <c r="C341" s="13"/>
@@ -9661,12 +9659,12 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <f>EDATE(A340,1)</f>
         <v>40725</v>
       </c>
-      <c r="B342" s="53" t="s">
+      <c r="B342" s="20" t="s">
         <v>255</v>
       </c>
       <c r="C342" s="13">
@@ -9686,12 +9684,12 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f t="shared" si="17"/>
         <v>40756</v>
       </c>
-      <c r="B343" s="53" t="s">
+      <c r="B343" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C343" s="13">
@@ -9711,9 +9709,9 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
-      <c r="B344" s="53" t="s">
+      <c r="B344" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C344" s="13"/>
@@ -9730,12 +9728,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>40787</v>
       </c>
-      <c r="B345" s="53" t="s">
+      <c r="B345" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C345" s="13">
@@ -9757,9 +9755,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
-      <c r="B346" s="53" t="s">
+      <c r="B346" s="20" t="s">
         <v>258</v>
       </c>
       <c r="C346" s="13"/>
@@ -9774,12 +9772,12 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f>EDATE(A345,1)</f>
         <v>40817</v>
       </c>
-      <c r="B347" s="53" t="s">
+      <c r="B347" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C347" s="13">
@@ -9801,9 +9799,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
-      <c r="B348" s="53" t="s">
+      <c r="B348" s="20" t="s">
         <v>260</v>
       </c>
       <c r="C348" s="13"/>
@@ -9818,12 +9816,12 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <f>EDATE(A347,1)</f>
         <v>40848</v>
       </c>
-      <c r="B349" s="53" t="s">
+      <c r="B349" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C349" s="13">
@@ -9843,9 +9841,9 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
-      <c r="B350" s="53" t="s">
+      <c r="B350" s="20" t="s">
         <v>212</v>
       </c>
       <c r="C350" s="13"/>
@@ -9860,12 +9858,12 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f>EDATE(A349,1)</f>
         <v>40878</v>
       </c>
-      <c r="B351" s="53" t="s">
+      <c r="B351" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C351" s="13">
@@ -9887,9 +9885,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
-      <c r="B352" s="53" t="s">
+      <c r="B352" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C352" s="13"/>
@@ -9909,9 +9907,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
-      <c r="B353" s="53" t="s">
+      <c r="B353" s="20" t="s">
         <v>263</v>
       </c>
       <c r="C353" s="13"/>
@@ -9929,11 +9927,11 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="B354" s="53"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
       <c r="E354" s="13"/>
@@ -9947,12 +9945,12 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <f>EDATE(A351,1)</f>
         <v>40909</v>
       </c>
-      <c r="B355" s="53" t="s">
+      <c r="B355" s="20" t="s">
         <v>266</v>
       </c>
       <c r="C355" s="13">
@@ -9972,12 +9970,12 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A355,1)</f>
         <v>40940</v>
       </c>
-      <c r="B356" s="53" t="s">
+      <c r="B356" s="20" t="s">
         <v>267</v>
       </c>
       <c r="C356" s="13">
@@ -9997,12 +9995,12 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f t="shared" ref="A357:A369" si="18">EDATE(A356,1)</f>
         <v>40969</v>
       </c>
-      <c r="B357" s="53" t="s">
+      <c r="B357" s="20" t="s">
         <v>268</v>
       </c>
       <c r="C357" s="13">
@@ -10022,12 +10020,12 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <f t="shared" si="18"/>
         <v>41000</v>
       </c>
-      <c r="B358" s="53" t="s">
+      <c r="B358" s="20" t="s">
         <v>269</v>
       </c>
       <c r="C358" s="13">
@@ -10047,12 +10045,12 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
         <f t="shared" si="18"/>
         <v>41030</v>
       </c>
-      <c r="B359" s="53" t="s">
+      <c r="B359" s="20" t="s">
         <v>270</v>
       </c>
       <c r="C359" s="13">
@@ -10072,12 +10070,12 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f t="shared" si="18"/>
         <v>41061</v>
       </c>
-      <c r="B360" s="53" t="s">
+      <c r="B360" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C360" s="13">
@@ -10097,9 +10095,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23"/>
-      <c r="B361" s="53" t="s">
+      <c r="B361" s="20" t="s">
         <v>271</v>
       </c>
       <c r="C361" s="13"/>
@@ -10114,12 +10112,12 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f>EDATE(A360,1)</f>
         <v>41091</v>
       </c>
-      <c r="B362" s="53" t="s">
+      <c r="B362" s="20" t="s">
         <v>273</v>
       </c>
       <c r="C362" s="13">
@@ -10139,9 +10137,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
-      <c r="B363" s="53" t="s">
+      <c r="B363" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C363" s="13"/>
@@ -10158,12 +10156,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <f>EDATE(A362,1)</f>
         <v>41122</v>
       </c>
-      <c r="B364" s="53" t="s">
+      <c r="B364" s="20" t="s">
         <v>274</v>
       </c>
       <c r="C364" s="13">
@@ -10183,9 +10181,9 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
-      <c r="B365" s="53" t="s">
+      <c r="B365" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C365" s="13"/>
@@ -10202,12 +10200,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>41153</v>
       </c>
-      <c r="B366" s="53" t="s">
+      <c r="B366" s="20" t="s">
         <v>275</v>
       </c>
       <c r="C366" s="13">
@@ -10227,9 +10225,9 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
-      <c r="B367" s="53" t="s">
+      <c r="B367" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C367" s="13"/>
@@ -10246,12 +10244,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EDATE(A366,1)</f>
         <v>41183</v>
       </c>
-      <c r="B368" s="53" t="s">
+      <c r="B368" s="20" t="s">
         <v>276</v>
       </c>
       <c r="C368" s="13">
@@ -10271,12 +10269,12 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <f t="shared" si="18"/>
         <v>41214</v>
       </c>
-      <c r="B369" s="53" t="s">
+      <c r="B369" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C369" s="13">
@@ -10296,9 +10294,9 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
-      <c r="B370" s="53" t="s">
+      <c r="B370" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C370" s="13"/>
@@ -10315,12 +10313,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <f>EDATE(A369,1)</f>
         <v>41244</v>
       </c>
-      <c r="B371" s="53" t="s">
+      <c r="B371" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C371" s="13">
@@ -10340,11 +10338,11 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B372" s="53"/>
+      <c r="B372" s="20"/>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
       <c r="E372" s="13"/>
@@ -10358,12 +10356,12 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <f>EDATE(A371,1)</f>
         <v>41275</v>
       </c>
-      <c r="B373" s="53" t="s">
+      <c r="B373" s="20" t="s">
         <v>283</v>
       </c>
       <c r="C373" s="13">
@@ -10383,9 +10381,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
-      <c r="B374" s="53" t="s">
+      <c r="B374" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C374" s="13"/>
@@ -10402,12 +10400,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f>EDATE(A373,1)</f>
         <v>41306</v>
       </c>
-      <c r="B375" s="53"/>
+      <c r="B375" s="20"/>
       <c r="C375" s="13">
         <v>1.25</v>
       </c>
@@ -10423,12 +10421,12 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f t="shared" ref="A376:A388" si="19">EDATE(A375,1)</f>
         <v>41334</v>
       </c>
-      <c r="B376" s="53"/>
+      <c r="B376" s="20"/>
       <c r="C376" s="13">
         <v>1.25</v>
       </c>
@@ -10444,12 +10442,12 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <f t="shared" si="19"/>
         <v>41365</v>
       </c>
-      <c r="B377" s="53" t="s">
+      <c r="B377" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C377" s="13">
@@ -10471,9 +10469,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
-      <c r="B378" s="53" t="s">
+      <c r="B378" s="20" t="s">
         <v>286</v>
       </c>
       <c r="C378" s="13"/>
@@ -10488,12 +10486,12 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41395</v>
       </c>
-      <c r="B379" s="53" t="s">
+      <c r="B379" s="20" t="s">
         <v>287</v>
       </c>
       <c r="C379" s="13">
@@ -10513,9 +10511,9 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
-      <c r="B380" s="53" t="s">
+      <c r="B380" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C380" s="13"/>
@@ -10532,12 +10530,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
         <f>EDATE(A379,1)</f>
         <v>41426</v>
       </c>
-      <c r="B381" s="53" t="s">
+      <c r="B381" s="20" t="s">
         <v>288</v>
       </c>
       <c r="C381" s="13">
@@ -10557,12 +10555,12 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f t="shared" si="19"/>
         <v>41456</v>
       </c>
-      <c r="B382" s="53" t="s">
+      <c r="B382" s="20" t="s">
         <v>289</v>
       </c>
       <c r="C382" s="13">
@@ -10582,12 +10580,12 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f t="shared" si="19"/>
         <v>41487</v>
       </c>
-      <c r="B383" s="53" t="s">
+      <c r="B383" s="20" t="s">
         <v>290</v>
       </c>
       <c r="C383" s="13">
@@ -10607,12 +10605,12 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f t="shared" si="19"/>
         <v>41518</v>
       </c>
-      <c r="B384" s="53" t="s">
+      <c r="B384" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C384" s="13">
@@ -10632,9 +10630,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
-      <c r="B385" s="53" t="s">
+      <c r="B385" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C385" s="13"/>
@@ -10649,12 +10647,12 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41548</v>
       </c>
-      <c r="B386" s="53" t="s">
+      <c r="B386" s="20" t="s">
         <v>293</v>
       </c>
       <c r="C386" s="13">
@@ -10674,12 +10672,12 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f t="shared" si="19"/>
         <v>41579</v>
       </c>
-      <c r="B387" s="53" t="s">
+      <c r="B387" s="20" t="s">
         <v>294</v>
       </c>
       <c r="C387" s="13">
@@ -10699,12 +10697,12 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="19"/>
         <v>41609</v>
       </c>
-      <c r="B388" s="53" t="s">
+      <c r="B388" s="20" t="s">
         <v>295</v>
       </c>
       <c r="C388" s="13">
@@ -10724,11 +10722,11 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="B389" s="53"/>
+      <c r="B389" s="20"/>
       <c r="C389" s="13"/>
       <c r="D389" s="39"/>
       <c r="E389" s="13"/>
@@ -10742,12 +10740,12 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <f>EDATE(A388,1)</f>
         <v>41640</v>
       </c>
-      <c r="B390" s="53" t="s">
+      <c r="B390" s="20" t="s">
         <v>297</v>
       </c>
       <c r="C390" s="13">
@@ -10767,12 +10765,12 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A390,1)</f>
         <v>41671</v>
       </c>
-      <c r="B391" s="53" t="s">
+      <c r="B391" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C391" s="13">
@@ -10792,12 +10790,12 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <f t="shared" ref="A392:A405" si="20">EDATE(A391,1)</f>
         <v>41699</v>
       </c>
-      <c r="B392" s="53" t="s">
+      <c r="B392" s="20" t="s">
         <v>298</v>
       </c>
       <c r="C392" s="13">
@@ -10817,12 +10815,12 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f t="shared" si="20"/>
         <v>41730</v>
       </c>
-      <c r="B393" s="53" t="s">
+      <c r="B393" s="20" t="s">
         <v>299</v>
       </c>
       <c r="C393" s="13">
@@ -10842,12 +10840,12 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <f t="shared" si="20"/>
         <v>41760</v>
       </c>
-      <c r="B394" s="53" t="s">
+      <c r="B394" s="20" t="s">
         <v>300</v>
       </c>
       <c r="C394" s="13">
@@ -10867,12 +10865,12 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f t="shared" si="20"/>
         <v>41791</v>
       </c>
-      <c r="B395" s="53" t="s">
+      <c r="B395" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C395" s="13">
@@ -10894,9 +10892,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
-      <c r="B396" s="53" t="s">
+      <c r="B396" s="20" t="s">
         <v>301</v>
       </c>
       <c r="C396" s="13"/>
@@ -10911,12 +10909,12 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>41821</v>
       </c>
-      <c r="B397" s="53" t="s">
+      <c r="B397" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C397" s="13">
@@ -10934,9 +10932,9 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
-      <c r="B398" s="53" t="s">
+      <c r="B398" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C398" s="13"/>
@@ -10953,9 +10951,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
-      <c r="B399" s="53" t="s">
+      <c r="B399" s="20" t="s">
         <v>303</v>
       </c>
       <c r="C399" s="13"/>
@@ -10970,12 +10968,12 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <f>EDATE(A397,1)</f>
         <v>41852</v>
       </c>
-      <c r="B400" s="53" t="s">
+      <c r="B400" s="20" t="s">
         <v>305</v>
       </c>
       <c r="C400" s="13">
@@ -10995,12 +10993,12 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f t="shared" si="20"/>
         <v>41883</v>
       </c>
-      <c r="B401" s="53" t="s">
+      <c r="B401" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C401" s="13">
@@ -11018,13 +11016,13 @@
       </c>
       <c r="I401" s="13"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="55">
+      <c r="K401" s="54">
         <v>45185</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
-      <c r="B402" s="53" t="s">
+      <c r="B402" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C402" s="13"/>
@@ -11039,9 +11037,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
-      <c r="B403" s="53" t="s">
+      <c r="B403" s="20" t="s">
         <v>306</v>
       </c>
       <c r="C403" s="13"/>
@@ -11056,12 +11054,12 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f>EDATE(A401,1)</f>
         <v>41913</v>
       </c>
-      <c r="B404" s="53" t="s">
+      <c r="B404" s="20" t="s">
         <v>308</v>
       </c>
       <c r="C404" s="13">
@@ -11081,12 +11079,12 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f t="shared" si="20"/>
         <v>41944</v>
       </c>
-      <c r="B405" s="53" t="s">
+      <c r="B405" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C405" s="13">
@@ -11106,9 +11104,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
-      <c r="B406" s="53" t="s">
+      <c r="B406" s="20" t="s">
         <v>309</v>
       </c>
       <c r="C406" s="13"/>
@@ -11123,12 +11121,12 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <f>EDATE(A405,1)</f>
         <v>41974</v>
       </c>
-      <c r="B407" s="53" t="s">
+      <c r="B407" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C407" s="13">
@@ -11150,9 +11148,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
-      <c r="B408" s="53" t="s">
+      <c r="B408" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C408" s="13"/>
@@ -11169,9 +11167,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23"/>
-      <c r="B409" s="53" t="s">
+      <c r="B409" s="20" t="s">
         <v>311</v>
       </c>
       <c r="C409" s="13"/>
@@ -11189,11 +11187,11 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="B410" s="53"/>
+      <c r="B410" s="20"/>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
       <c r="E410" s="13"/>
@@ -11207,12 +11205,12 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <f>EDATE(A407,1)</f>
         <v>42005</v>
       </c>
-      <c r="B411" s="53" t="s">
+      <c r="B411" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C411" s="13">
@@ -11232,9 +11230,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
-      <c r="B412" s="53" t="s">
+      <c r="B412" s="20" t="s">
         <v>315</v>
       </c>
       <c r="C412" s="13"/>
@@ -11249,12 +11247,12 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A411,1)</f>
         <v>42036</v>
       </c>
-      <c r="B413" s="53" t="s">
+      <c r="B413" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C413" s="13">
@@ -11274,9 +11272,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
-      <c r="B414" s="53" t="s">
+      <c r="B414" s="20" t="s">
         <v>317</v>
       </c>
       <c r="C414" s="13"/>
@@ -11291,12 +11289,12 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <f>EDATE(A413,1)</f>
         <v>42064</v>
       </c>
-      <c r="B415" s="53" t="s">
+      <c r="B415" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C415" s="13">
@@ -11318,9 +11316,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
-      <c r="B416" s="53" t="s">
+      <c r="B416" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C416" s="13"/>
@@ -11335,9 +11333,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23"/>
-      <c r="B417" s="53" t="s">
+      <c r="B417" s="20" t="s">
         <v>319</v>
       </c>
       <c r="C417" s="13"/>
@@ -11352,12 +11350,12 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f>EDATE(A415,1)</f>
         <v>42095</v>
       </c>
-      <c r="B418" s="53" t="s">
+      <c r="B418" s="20" t="s">
         <v>322</v>
       </c>
       <c r="C418" s="13">
@@ -11377,12 +11375,12 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <f t="shared" ref="A419:A433" si="21">EDATE(A418,1)</f>
         <v>42125</v>
       </c>
-      <c r="B419" s="53" t="s">
+      <c r="B419" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C419" s="13">
@@ -11400,13 +11398,13 @@
       </c>
       <c r="I419" s="13"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="55">
+      <c r="K419" s="54">
         <v>45066</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
-      <c r="B420" s="53" t="s">
+      <c r="B420" s="20" t="s">
         <v>323</v>
       </c>
       <c r="C420" s="13"/>
@@ -11421,12 +11419,12 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <f>EDATE(A419,1)</f>
         <v>42156</v>
       </c>
-      <c r="B421" s="53" t="s">
+      <c r="B421" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C421" s="13">
@@ -11444,13 +11442,13 @@
       </c>
       <c r="I421" s="13"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="55">
+      <c r="K421" s="54">
         <v>45078</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
-      <c r="B422" s="53" t="s">
+      <c r="B422" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C422" s="13"/>
@@ -11463,13 +11461,13 @@
       </c>
       <c r="I422" s="13"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="55">
+      <c r="K422" s="54">
         <v>45085</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23"/>
-      <c r="B423" s="53" t="s">
+      <c r="B423" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C423" s="13"/>
@@ -11486,9 +11484,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
-      <c r="B424" s="53" t="s">
+      <c r="B424" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C424" s="13"/>
@@ -11503,12 +11501,12 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23">
         <f>EDATE(A421,1)</f>
         <v>42186</v>
       </c>
-      <c r="B425" s="53" t="s">
+      <c r="B425" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C425" s="13">
@@ -11526,13 +11524,13 @@
       </c>
       <c r="I425" s="13"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="55">
+      <c r="K425" s="54">
         <v>45108</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
-      <c r="B426" s="53" t="s">
+      <c r="B426" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C426" s="13"/>
@@ -11549,9 +11547,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
-      <c r="B427" s="53" t="s">
+      <c r="B427" s="20" t="s">
         <v>325</v>
       </c>
       <c r="C427" s="13"/>
@@ -11566,12 +11564,12 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EDATE(A425,1)</f>
         <v>42217</v>
       </c>
-      <c r="B428" s="53" t="s">
+      <c r="B428" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C428" s="13">
@@ -11589,13 +11587,13 @@
       </c>
       <c r="I428" s="13"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="55">
+      <c r="K428" s="54">
         <v>45165</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
-      <c r="B429" s="53" t="s">
+      <c r="B429" s="20" t="s">
         <v>327</v>
       </c>
       <c r="C429" s="13"/>
@@ -11610,12 +11608,12 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f>EDATE(A428,1)</f>
         <v>42248</v>
       </c>
-      <c r="B430" s="53" t="s">
+      <c r="B430" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C430" s="13">
@@ -11633,13 +11631,13 @@
       </c>
       <c r="I430" s="13"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="55">
+      <c r="K430" s="54">
         <v>45160</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
-      <c r="B431" s="53" t="s">
+      <c r="B431" s="20" t="s">
         <v>328</v>
       </c>
       <c r="C431" s="13"/>
@@ -11654,12 +11652,12 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>42278</v>
       </c>
-      <c r="B432" s="53" t="s">
+      <c r="B432" s="20" t="s">
         <v>220</v>
       </c>
       <c r="C432" s="13">
@@ -11679,12 +11677,12 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <f t="shared" si="21"/>
         <v>42309</v>
       </c>
-      <c r="B433" s="53" t="s">
+      <c r="B433" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C433" s="13">
@@ -11702,13 +11700,13 @@
       </c>
       <c r="I433" s="13"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="55">
+      <c r="K433" s="54">
         <v>45180</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
-      <c r="B434" s="53" t="s">
+      <c r="B434" s="20" t="s">
         <v>329</v>
       </c>
       <c r="C434" s="13"/>
@@ -11723,12 +11721,12 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23">
         <f>EDATE(A433,1)</f>
         <v>42339</v>
       </c>
-      <c r="B435" s="53" t="s">
+      <c r="B435" s="20" t="s">
         <v>330</v>
       </c>
       <c r="C435" s="13">
@@ -11748,11 +11746,11 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="B436" s="53"/>
+      <c r="B436" s="20"/>
       <c r="C436" s="13"/>
       <c r="D436" s="39"/>
       <c r="E436" s="13"/>
@@ -11766,12 +11764,12 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <f>EDATE(A435,1)</f>
         <v>42370</v>
       </c>
-      <c r="B437" s="53" t="s">
+      <c r="B437" s="20" t="s">
         <v>332</v>
       </c>
       <c r="C437" s="13">
@@ -11791,12 +11789,12 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A437,1)</f>
         <v>42401</v>
       </c>
-      <c r="B438" s="53" t="s">
+      <c r="B438" s="20" t="s">
         <v>333</v>
       </c>
       <c r="C438" s="13">
@@ -11816,12 +11814,12 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f t="shared" ref="A439:A449" si="22">EDATE(A438,1)</f>
         <v>42430</v>
       </c>
-      <c r="B439" s="53" t="s">
+      <c r="B439" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C439" s="13">
@@ -11841,12 +11839,12 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f t="shared" si="22"/>
         <v>42461</v>
       </c>
-      <c r="B440" s="53" t="s">
+      <c r="B440" s="20" t="s">
         <v>335</v>
       </c>
       <c r="C440" s="13">
@@ -11866,12 +11864,12 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f t="shared" si="22"/>
         <v>42491</v>
       </c>
-      <c r="B441" s="53" t="s">
+      <c r="B441" s="20" t="s">
         <v>336</v>
       </c>
       <c r="C441" s="13">
@@ -11891,12 +11889,12 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23">
         <f t="shared" si="22"/>
         <v>42522</v>
       </c>
-      <c r="B442" s="53" t="s">
+      <c r="B442" s="20" t="s">
         <v>337</v>
       </c>
       <c r="C442" s="13">
@@ -11916,12 +11914,12 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f t="shared" si="22"/>
         <v>42552</v>
       </c>
-      <c r="B443" s="53" t="s">
+      <c r="B443" s="20" t="s">
         <v>338</v>
       </c>
       <c r="C443" s="13">
@@ -11941,12 +11939,12 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f t="shared" si="22"/>
         <v>42583</v>
       </c>
-      <c r="B444" s="53" t="s">
+      <c r="B444" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C444" s="13">
@@ -11966,12 +11964,12 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" si="22"/>
         <v>42614</v>
       </c>
-      <c r="B445" s="53" t="s">
+      <c r="B445" s="20" t="s">
         <v>339</v>
       </c>
       <c r="C445" s="13">
@@ -11991,9 +11989,9 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
-      <c r="B446" s="53" t="s">
+      <c r="B446" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C446" s="13"/>
@@ -12008,12 +12006,12 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f>EDATE(A445,1)</f>
         <v>42644</v>
       </c>
-      <c r="B447" s="53" t="s">
+      <c r="B447" s="20" t="s">
         <v>340</v>
       </c>
       <c r="C447" s="13">
@@ -12033,12 +12031,12 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23">
         <f t="shared" si="22"/>
         <v>42675</v>
       </c>
-      <c r="B448" s="53" t="s">
+      <c r="B448" s="20" t="s">
         <v>341</v>
       </c>
       <c r="C448" s="13">
@@ -12058,12 +12056,12 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f t="shared" si="22"/>
         <v>42705</v>
       </c>
-      <c r="B449" s="53" t="s">
+      <c r="B449" s="20" t="s">
         <v>342</v>
       </c>
       <c r="C449" s="13">
@@ -12083,9 +12081,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23"/>
-      <c r="B450" s="53" t="s">
+      <c r="B450" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C450" s="13"/>
@@ -12103,11 +12101,11 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B451" s="53"/>
+      <c r="B451" s="20"/>
       <c r="C451" s="13"/>
       <c r="D451" s="39"/>
       <c r="E451" s="13"/>
@@ -12121,12 +12119,12 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23">
         <f>EDATE(A449,1)</f>
         <v>42736</v>
       </c>
-      <c r="B452" s="53" t="s">
+      <c r="B452" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C452" s="13">
@@ -12148,9 +12146,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
-      <c r="B453" s="53" t="s">
+      <c r="B453" s="20" t="s">
         <v>345</v>
       </c>
       <c r="C453" s="13"/>
@@ -12165,12 +12163,12 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f>EDATE(A452,1)</f>
         <v>42767</v>
       </c>
-      <c r="B454" s="53" t="s">
+      <c r="B454" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C454" s="13">
@@ -12192,9 +12190,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
-      <c r="B455" s="53" t="s">
+      <c r="B455" s="20" t="s">
         <v>347</v>
       </c>
       <c r="C455" s="13"/>
@@ -12209,12 +12207,12 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23">
         <f>EDATE(A454,1)</f>
         <v>42795</v>
       </c>
-      <c r="B456" s="53" t="s">
+      <c r="B456" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C456" s="13">
@@ -12236,9 +12234,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
-      <c r="B457" s="53" t="s">
+      <c r="B457" s="20" t="s">
         <v>348</v>
       </c>
       <c r="C457" s="13"/>
@@ -12253,12 +12251,12 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <f>EDATE(A456,1)</f>
         <v>42826</v>
       </c>
-      <c r="B458" s="53" t="s">
+      <c r="B458" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C458" s="13">
@@ -12276,13 +12274,13 @@
       </c>
       <c r="I458" s="13"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="55">
+      <c r="K458" s="54">
         <v>45051</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23"/>
-      <c r="B459" s="53" t="s">
+      <c r="B459" s="20" t="s">
         <v>350</v>
       </c>
       <c r="C459" s="13"/>
@@ -12297,12 +12295,12 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23">
         <f>EDATE(A458,1)</f>
         <v>42856</v>
       </c>
-      <c r="B460" s="53" t="s">
+      <c r="B460" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C460" s="13">
@@ -12322,12 +12320,12 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23">
         <f t="shared" ref="A461:A470" si="23">EDATE(A460,1)</f>
         <v>42887</v>
       </c>
-      <c r="B461" s="53" t="s">
+      <c r="B461" s="20" t="s">
         <v>351</v>
       </c>
       <c r="C461" s="13">
@@ -12347,12 +12345,12 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f t="shared" si="23"/>
         <v>42917</v>
       </c>
-      <c r="B462" s="53" t="s">
+      <c r="B462" s="20" t="s">
         <v>352</v>
       </c>
       <c r="C462" s="13">
@@ -12372,12 +12370,12 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f t="shared" si="23"/>
         <v>42948</v>
       </c>
-      <c r="B463" s="53" t="s">
+      <c r="B463" s="20" t="s">
         <v>353</v>
       </c>
       <c r="C463" s="13">
@@ -12397,12 +12395,12 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23">
         <f t="shared" si="23"/>
         <v>42979</v>
       </c>
-      <c r="B464" s="53" t="s">
+      <c r="B464" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C464" s="13">
@@ -12420,13 +12418,13 @@
       </c>
       <c r="I464" s="13"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="55">
+      <c r="K464" s="54">
         <v>45187</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23"/>
-      <c r="B465" s="53" t="s">
+      <c r="B465" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C465" s="13"/>
@@ -12437,13 +12435,13 @@
       <c r="H465" s="39"/>
       <c r="I465" s="13"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="56" t="s">
+      <c r="K465" s="55" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23"/>
-      <c r="B466" s="53" t="s">
+      <c r="B466" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C466" s="13"/>
@@ -12460,9 +12458,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
-      <c r="B467" s="53" t="s">
+      <c r="B467" s="20" t="s">
         <v>250</v>
       </c>
       <c r="C467" s="13"/>
@@ -12477,12 +12475,12 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23">
         <f>EDATE(A464,1)</f>
         <v>43009</v>
       </c>
-      <c r="B468" s="53" t="s">
+      <c r="B468" s="20" t="s">
         <v>356</v>
       </c>
       <c r="C468" s="13">
@@ -12502,12 +12500,12 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f t="shared" si="23"/>
         <v>43040</v>
       </c>
-      <c r="B469" s="53"/>
+      <c r="B469" s="20"/>
       <c r="C469" s="13">
         <v>1.25</v>
       </c>
@@ -12523,12 +12521,12 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f t="shared" si="23"/>
         <v>43070</v>
       </c>
-      <c r="B470" s="53"/>
+      <c r="B470" s="20"/>
       <c r="C470" s="13">
         <v>1.25</v>
       </c>
@@ -12544,7 +12542,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="47" t="s">
         <v>44</v>
       </c>
@@ -12566,7 +12564,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43101</v>
       </c>
@@ -12586,7 +12584,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43132</v>
       </c>
@@ -12606,7 +12604,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43160</v>
       </c>
@@ -12632,7 +12630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43191</v>
       </c>
@@ -12656,7 +12654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>47</v>
@@ -12673,7 +12671,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43221</v>
       </c>
@@ -12699,7 +12697,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43252</v>
       </c>
@@ -12719,7 +12717,7 @@
       <c r="J478" s="12"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43282</v>
       </c>
@@ -12745,7 +12743,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>48</v>
@@ -12764,7 +12762,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -12790,7 +12788,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43344</v>
       </c>
@@ -12810,7 +12808,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43374</v>
       </c>
@@ -12830,7 +12828,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43405</v>
       </c>
@@ -12850,7 +12848,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43435</v>
       </c>
@@ -12876,7 +12874,7 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>48</v>
@@ -12898,7 +12896,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="47" t="s">
         <v>51</v>
       </c>
@@ -12916,7 +12914,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43466</v>
       </c>
@@ -12936,7 +12934,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43497</v>
       </c>
@@ -12956,7 +12954,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>43525</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>46</v>
@@ -12997,7 +12995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>48</v>
@@ -13016,7 +13014,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43556</v>
       </c>
@@ -13042,7 +13040,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>52</v>
@@ -13061,7 +13059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>48</v>
@@ -13080,7 +13078,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>48</v>
@@ -13099,7 +13097,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43586</v>
       </c>
@@ -13119,7 +13117,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>43617</v>
       </c>
@@ -13139,7 +13137,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43647</v>
       </c>
@@ -13159,7 +13157,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43678</v>
       </c>
@@ -13179,7 +13177,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43709</v>
       </c>
@@ -13199,7 +13197,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43739</v>
       </c>
@@ -13219,7 +13217,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43770</v>
       </c>
@@ -13239,7 +13237,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43800</v>
       </c>
@@ -13263,7 +13261,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="47" t="s">
         <v>56</v>
       </c>
@@ -13281,7 +13279,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43831</v>
       </c>
@@ -13307,7 +13305,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>57</v>
@@ -13324,7 +13322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>58</v>
@@ -13341,7 +13339,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>59</v>
@@ -13360,7 +13358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>43862</v>
       </c>
@@ -13380,7 +13378,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43891</v>
       </c>
@@ -13400,7 +13398,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43922</v>
       </c>
@@ -13420,7 +13418,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43952</v>
       </c>
@@ -13440,7 +13438,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43983</v>
       </c>
@@ -13466,7 +13464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44013</v>
       </c>
@@ -13486,7 +13484,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44044</v>
       </c>
@@ -13506,7 +13504,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44075</v>
       </c>
@@ -13532,7 +13530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44105</v>
       </c>
@@ -13552,7 +13550,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44136</v>
       </c>
@@ -13572,7 +13570,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44166</v>
       </c>
@@ -13592,7 +13590,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="47" t="s">
         <v>66</v>
       </c>
@@ -13610,7 +13608,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44197</v>
       </c>
@@ -13636,7 +13634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44228</v>
       </c>
@@ -13656,7 +13654,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44256</v>
       </c>
@@ -13676,7 +13674,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44287</v>
       </c>
@@ -13696,7 +13694,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44317</v>
       </c>
@@ -13716,7 +13714,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44348</v>
       </c>
@@ -13736,7 +13734,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44378</v>
       </c>
@@ -13756,7 +13754,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44409</v>
       </c>
@@ -13776,7 +13774,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44440</v>
       </c>
@@ -13796,7 +13794,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44470</v>
       </c>
@@ -13816,7 +13814,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44501</v>
       </c>
@@ -13836,7 +13834,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44531</v>
       </c>
@@ -13860,7 +13858,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="47" t="s">
         <v>68</v>
       </c>
@@ -13878,7 +13876,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44562</v>
       </c>
@@ -13898,7 +13896,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44593</v>
       </c>
@@ -13918,7 +13916,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -13944,7 +13942,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>377</v>
@@ -13964,7 +13962,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44652</v>
       </c>
@@ -13990,7 +13988,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>375</v>
@@ -14010,7 +14008,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44682</v>
       </c>
@@ -14030,7 +14028,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="48"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>373</v>
@@ -14050,7 +14048,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="48"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44713</v>
       </c>
@@ -14076,7 +14074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>372</v>
@@ -14096,7 +14094,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44743</v>
       </c>
@@ -14122,7 +14120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>368</v>
@@ -14144,7 +14142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>369</v>
@@ -14164,7 +14162,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44774</v>
       </c>
@@ -14190,7 +14188,7 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>366</v>
@@ -14210,7 +14208,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="48"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44805</v>
       </c>
@@ -14236,7 +14234,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>364</v>
@@ -14256,7 +14254,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44835</v>
       </c>
@@ -14280,7 +14278,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44866</v>
       </c>
@@ -14304,7 +14302,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44896</v>
       </c>
@@ -14328,7 +14326,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>357</v>
@@ -14350,7 +14348,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>359</v>
@@ -14370,7 +14368,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="47" t="s">
         <v>70</v>
       </c>
@@ -14388,7 +14386,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44927</v>
       </c>
@@ -14414,7 +14412,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>46</v>
@@ -14434,7 +14432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44958</v>
       </c>
@@ -14454,7 +14452,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44986</v>
       </c>
@@ -14474,7 +14472,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45017</v>
       </c>
@@ -14494,7 +14492,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45047</v>
       </c>
@@ -14514,7 +14512,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45078</v>
       </c>
@@ -14534,7 +14532,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45108</v>
       </c>
@@ -14554,43 +14552,47 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45139</v>
       </c>
       <c r="B566" s="20"/>
-      <c r="C566" s="13"/>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45170</v>
       </c>
       <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45200</v>
       </c>
@@ -14608,7 +14610,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45231</v>
       </c>
@@ -14626,7 +14628,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45261</v>
       </c>
@@ -14644,7 +14646,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45292</v>
       </c>
@@ -14662,7 +14664,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45323</v>
       </c>
@@ -14680,7 +14682,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45352</v>
       </c>
@@ -14698,7 +14700,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45383</v>
       </c>
@@ -14716,7 +14718,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45413</v>
       </c>
@@ -14734,7 +14736,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45444</v>
       </c>
@@ -14752,7 +14754,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>45474</v>
       </c>
@@ -14770,7 +14772,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>45505</v>
       </c>
@@ -14788,7 +14790,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45536</v>
       </c>
@@ -14806,7 +14808,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45566</v>
       </c>
@@ -14824,7 +14826,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>45597</v>
       </c>
@@ -14842,7 +14844,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>45627</v>
       </c>
@@ -14860,7 +14862,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>45658</v>
       </c>
@@ -14878,7 +14880,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>45689</v>
       </c>
@@ -14896,7 +14898,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>45717</v>
       </c>
@@ -14914,7 +14916,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45748</v>
       </c>
@@ -14932,7 +14934,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>45778</v>
       </c>
@@ -14950,7 +14952,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>45809</v>
       </c>
@@ -14968,7 +14970,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>45839</v>
       </c>
@@ -14986,7 +14988,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>45870</v>
       </c>
@@ -15004,7 +15006,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>45901</v>
       </c>
@@ -15022,7 +15024,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>45931</v>
       </c>
@@ -15040,7 +15042,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>45962</v>
       </c>
@@ -15058,7 +15060,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>45992</v>
       </c>
@@ -15076,7 +15078,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>46023</v>
       </c>
@@ -15094,7 +15096,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>46054</v>
       </c>
@@ -15112,7 +15114,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>46082</v>
       </c>
@@ -15130,7 +15132,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>46113</v>
       </c>
@@ -15148,7 +15150,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>46143</v>
       </c>
@@ -15166,7 +15168,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>46174</v>
       </c>
@@ -15184,7 +15186,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>46204</v>
       </c>
@@ -15202,7 +15204,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>46235</v>
       </c>
@@ -15220,7 +15222,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>46266</v>
       </c>
@@ -15238,7 +15240,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>46296</v>
       </c>
@@ -15256,7 +15258,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>46327</v>
       </c>
@@ -15274,7 +15276,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>46357</v>
       </c>
@@ -15292,7 +15294,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>46388</v>
       </c>
@@ -15310,7 +15312,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>46419</v>
       </c>
@@ -15328,7 +15330,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>46447</v>
       </c>
@@ -15346,7 +15348,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>46478</v>
       </c>
@@ -15364,7 +15366,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>46508</v>
       </c>
@@ -15382,7 +15384,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>46539</v>
       </c>
@@ -15400,7 +15402,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>46569</v>
       </c>
@@ -15433,10 +15435,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15459,41 +15461,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15522,7 +15524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15548,17 +15550,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15572,14 +15574,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15606,7 +15608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15632,7 +15634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15658,7 +15660,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15710,7 +15712,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15736,7 +15738,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15762,7 +15764,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15808,7 +15810,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15828,7 +15830,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15848,7 +15850,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15869,7 +15871,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15890,7 +15892,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15911,7 +15913,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15932,7 +15934,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15953,7 +15955,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15974,7 +15976,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15995,7 +15997,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16037,7 +16039,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16058,7 +16060,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16079,7 +16081,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16100,7 +16102,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16121,7 +16123,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16142,7 +16144,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16163,7 +16165,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16184,7 +16186,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16205,7 +16207,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16226,7 +16228,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16247,7 +16249,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16268,7 +16270,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16277,7 +16279,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16286,7 +16288,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16295,7 +16297,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16304,7 +16306,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16313,7 +16315,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16322,7 +16324,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16331,7 +16333,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16340,7 +16342,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16349,7 +16351,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16358,7 +16360,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16367,7 +16369,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16376,7 +16378,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16385,7 +16387,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16394,7 +16396,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16403,7 +16405,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16412,7 +16414,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16421,7 +16423,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16430,7 +16432,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16439,7 +16441,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16448,7 +16450,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16457,7 +16459,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16466,7 +16468,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16475,7 +16477,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16484,7 +16486,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16493,7 +16495,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16502,7 +16504,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16511,7 +16513,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16520,7 +16522,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16529,7 +16531,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
